--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>时间</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>未导入成本，重新导入，系统后台手动审核成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、这个配置一下  ：物流：中翼国际  快递100对接码： chnexp </t>
   </si>
 </sst>
 </file>
@@ -61,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,7 +86,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,15 +131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +169,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,8 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,21 +206,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -241,31 +244,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,151 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +458,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +509,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -509,17 +516,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,145 +543,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,6 +788,44 @@
         <a:xfrm>
           <a:off x="1828800" y="1076325"/>
           <a:ext cx="5306060" cy="3715385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106045</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="1517555019(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5372100"/>
+          <a:ext cx="7316470" cy="3639185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,15 +1095,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1118,6 +1159,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>时间</t>
   </si>
@@ -59,22 +59,43 @@
   </si>
   <si>
     <t>1、拉去2018年1月份订单、商品数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>张龙云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、拉取指定商品指定数据</t>
+  </si>
+  <si>
+    <t>袁楚</t>
+  </si>
+  <si>
+    <t>2、京东商品明细图片不显示问题</t>
+  </si>
+  <si>
+    <t>朱伟</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>修复发布</t>
+  </si>
+  <si>
+    <t>3、拉取近6个月有购买记录，近1个月未购买的(Nutrilon诺优能 Aptamil爱他美)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +112,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +269,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,9 +464,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -136,10 +723,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -150,7 +784,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -172,7 +806,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -210,7 +844,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -248,7 +882,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -256,7 +890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1809750" y="9601200"/>
-          <a:ext cx="8076191" cy="4590477"/>
+          <a:ext cx="8075930" cy="4590415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -286,7 +920,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -294,7 +928,121 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1790700" y="9734550"/>
-          <a:ext cx="8076191" cy="4590477"/>
+          <a:ext cx="8075930" cy="4590415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476885</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="企业微信截图_15177989222160"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="14811375"/>
+          <a:ext cx="6096635" cy="3553460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="1517799105(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="18916650"/>
+          <a:ext cx="6068060" cy="3391535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>705485</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="企业微信截图_15178194663096"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="22831425"/>
+          <a:ext cx="6372860" cy="5725160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,20 +1306,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -581,7 +1330,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>43133</v>
       </c>
@@ -627,7 +1376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>13</v>
       </c>
@@ -644,7 +1393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>43135</v>
       </c>
@@ -661,12 +1410,69 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B83" t="s">
         <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>时间</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>3、拉取近6个月有购买记录，近1个月未购买的(Nutrilon诺优能 Aptamil爱他美)</t>
+  </si>
+  <si>
+    <t>1、加入商品提示“礼品订单已结束”</t>
+  </si>
+  <si>
+    <t>唐敏</t>
+  </si>
+  <si>
+    <t>咨询</t>
+  </si>
+  <si>
+    <t>礼品订单为商品名称，缓存未及时更新</t>
   </si>
 </sst>
 </file>
@@ -90,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,6 +131,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,16 +213,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -160,21 +231,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,51 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,6 +283,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,13 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,60 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,24 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +474,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,6 +512,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,41 +568,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -570,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,6 +1063,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>372110</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="694261617609555341"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="29222700"/>
+          <a:ext cx="6172835" cy="2943860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1312,12 +1362,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1470,6 +1520,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>礼品订单为商品名称，缓存未及时更新</t>
+  </si>
+  <si>
+    <t>2、网安新增关键词屏蔽</t>
+  </si>
+  <si>
+    <t>邹艳红</t>
   </si>
 </sst>
 </file>
@@ -102,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -131,6 +137,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -169,47 +198,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,19 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +289,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,6 +337,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,84 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,21 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,26 +503,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +539,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -582,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,6 +1107,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>725170</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="1517991903(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="32985075"/>
+          <a:ext cx="8030845" cy="4239260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1362,12 +1406,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1543,6 +1587,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="189" spans="2:6">
+      <c r="B189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>时间</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>邹艳红</t>
+  </si>
+  <si>
+    <t>1、供应商后台新增物流 快递100编码：chnexp 中翼国际物流</t>
   </si>
 </sst>
 </file>
@@ -108,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -319,157 +322,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,145 +591,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,6 +1148,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="1518160159(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="37938075"/>
+          <a:ext cx="6144260" cy="3896360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1406,12 +1447,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1604,6 +1645,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>时间</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>1、供应商后台新增物流 快递100编码：chnexp 中翼国际物流</t>
+  </si>
+  <si>
+    <t>1、 354303    此会员当时是张灵伟手动修改客户为白金卡会员的，但是后台会根据幸运星计算，现在客户等级还是回到了金卡，麻烦帮客户添加幸运星，让客户达到白金卡会员，谢谢！</t>
+  </si>
+  <si>
+    <t>陈雨龙</t>
+  </si>
+  <si>
+    <t>1、公司名称：雪豆齐服饰（上海）有限公司，这个商家密码忘记了，收不到验证码，麻烦帮我处理一下</t>
+  </si>
+  <si>
+    <t>谭挺</t>
   </si>
 </sst>
 </file>
@@ -111,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -322,6 +334,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,6 +400,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,6 +442,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,24 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,137 +615,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +754,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1186,6 +1204,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="1518312972(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="42729150"/>
+          <a:ext cx="7611745" cy="4067810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3001645</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="1518313051(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="42795825"/>
+          <a:ext cx="7887970" cy="2820035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487045</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="1518418136(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="47529750"/>
+          <a:ext cx="7764145" cy="3743960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1447,12 +1579,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C218" sqref="C218"/>
+      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1665,6 +1797,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="244" ht="40.5" spans="1:6">
+      <c r="A244" s="2">
+        <v>43141</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" t="s">
+        <v>31</v>
+      </c>
+      <c r="D244" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" t="s">
+        <v>20</v>
+      </c>
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" ht="27" spans="1:7">
+      <c r="A271" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D271" t="s">
+        <v>33</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>时间</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>谭挺</t>
+  </si>
+  <si>
+    <t>1、这2个促销 点了审核没反应，点开启提示未审核</t>
+  </si>
+  <si>
+    <t>已解决</t>
   </si>
 </sst>
 </file>
@@ -123,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,6 +151,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -175,112 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -288,6 +280,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -304,6 +310,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,72 +484,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,96 +491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,30 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,6 +515,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +578,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -603,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,137 +621,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,9 +760,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1283,15 +1286,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>487045</xdr:colOff>
+      <xdr:colOff>477520</xdr:colOff>
       <xdr:row>293</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1308,8 +1311,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762125" y="47529750"/>
+          <a:off x="1752600" y="47472600"/>
           <a:ext cx="7764145" cy="3743960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762635</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="企业微信截图_15184852303035"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="51854100"/>
+          <a:ext cx="6363335" cy="3629660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,12 +1620,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
+      <selection pane="bottomLeft" activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1821,7 +1862,7 @@
       <c r="A271" s="2">
         <v>43143</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D271" t="s">
@@ -1835,6 +1876,26 @@
       </c>
       <c r="G271" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C296" t="s">
+        <v>24</v>
+      </c>
+      <c r="D296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>20</v>
+      </c>
+      <c r="F296" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>时间</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>已解决</t>
+  </si>
+  <si>
+    <t>1、网安登录数据采集30W条</t>
+  </si>
+  <si>
+    <t>2、11980752  此单麻烦修改订单单价为158元，订单总金额也是158元，麻烦帮忙修改，谢谢！</t>
+  </si>
+  <si>
+    <t>cyl9031</t>
   </si>
 </sst>
 </file>
@@ -129,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -148,6 +157,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,30 +283,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,20 +303,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -310,18 +319,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,37 +403,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,30 +469,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,79 +481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +510,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,15 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,21 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -609,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +769,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1359,6 +1371,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="178746500943779559"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="56130825"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1001395</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="企业微信截图_15194351942565"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="67084575"/>
+          <a:ext cx="8145145" cy="5706110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1620,12 +1708,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F296" sqref="F296"/>
+      <selection pane="bottomLeft" activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1898,6 +1986,43 @@
         <v>35</v>
       </c>
     </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B321" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" ht="27" spans="2:6">
+      <c r="B384" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C384" t="s">
+        <v>38</v>
+      </c>
+      <c r="D384" t="s">
+        <v>9</v>
+      </c>
+      <c r="E384" t="s">
+        <v>10</v>
+      </c>
+      <c r="F384" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>时间</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>cyl9031</t>
+  </si>
+  <si>
+    <t>3、关于京东费用调整事宜</t>
+  </si>
+  <si>
+    <t>刘丹</t>
+  </si>
+  <si>
+    <t>4、11973763 采购结算价为0，麻烦处理一下谢谢</t>
   </si>
 </sst>
 </file>
@@ -760,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,9 +778,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1447,6 +1453,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>591820</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="企业微信截图_15194551987249"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="73447275"/>
+          <a:ext cx="7783195" cy="6935470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1181735</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="企业微信截图_15194555189879"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="81038700"/>
+          <a:ext cx="6811010" cy="4039235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1708,12 +1790,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F384" sqref="F384"/>
+      <selection pane="bottomLeft" activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2007,7 +2089,7 @@
       </c>
     </row>
     <row r="384" ht="27" spans="2:6">
-      <c r="B384" s="4" t="s">
+      <c r="B384" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C384" t="s">
@@ -2020,6 +2102,40 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6">
+      <c r="B421" t="s">
+        <v>39</v>
+      </c>
+      <c r="C421" t="s">
+        <v>40</v>
+      </c>
+      <c r="D421" t="s">
+        <v>9</v>
+      </c>
+      <c r="E421" t="s">
+        <v>10</v>
+      </c>
+      <c r="F421" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="2:6">
+      <c r="B465" t="s">
+        <v>41</v>
+      </c>
+      <c r="C465" t="s">
+        <v>40</v>
+      </c>
+      <c r="D465" t="s">
+        <v>9</v>
+      </c>
+      <c r="E465" t="s">
+        <v>10</v>
+      </c>
+      <c r="F465" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>时间</t>
   </si>
@@ -140,6 +140,37 @@
   </si>
   <si>
     <t>4、11973763 采购结算价为0，麻烦处理一下谢谢</t>
+  </si>
+  <si>
+    <t>1、海涛，新年好！
+551018   此会员今天宝贝币兑换的券在帐户中未查到，麻烦核实下是什么情况未返回，客户要求今天处理好，谢谢！</t>
+  </si>
+  <si>
+    <t>雪儿</t>
+  </si>
+  <si>
+    <t>已补发劵到客户账户</t>
+  </si>
+  <si>
+    <t>2、将兼职人员 王奎 的报警电话号码恢复到白名单，以接受报警信息</t>
+  </si>
+  <si>
+    <t>王奎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3、特卖商家登录后台密码错误，用绑定手机找密码，提示短信发送失败，麻烦帮忙处理一下，谢谢。登录帐户名：657645538  供就商名称：雪豆齐服饰（上海）有限公司 </t>
+  </si>
+  <si>
+    <t>4、商品成本技术审核</t>
+  </si>
+  <si>
+    <t>1、拉取京东商品明细</t>
+  </si>
+  <si>
+    <t>2、处理订单获取不到物流信息</t>
+  </si>
+  <si>
+    <t>订单导入运单号和物流公司错误</t>
   </si>
 </sst>
 </file>
@@ -147,8 +178,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -170,7 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,7 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,61 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -269,11 +245,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +305,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -328,31 +359,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,145 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +550,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,30 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -572,26 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +621,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -627,145 +658,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,6 +1552,272 @@
         <a:xfrm>
           <a:off x="1866900" y="81038700"/>
           <a:ext cx="6811010" cy="4039235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5848350</xdr:colOff>
+      <xdr:row>551</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19" descr="515491747136931543"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="85982175"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>555</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5420360</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21" descr="企业微信截图_1519622185590"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="96659700"/>
+          <a:ext cx="5287010" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>581</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>868045</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22" descr="1519623078(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="101365050"/>
+          <a:ext cx="8030845" cy="3667760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>839470</xdr:colOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="1519624444(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="105575100"/>
+          <a:ext cx="8059420" cy="4086860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>634</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23" descr="299155560295424663"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="110309025"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>696</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5857875</xdr:colOff>
+      <xdr:row>754</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24" descr="300513402955391504"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="120967500"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>696</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1563370</xdr:colOff>
+      <xdr:row>725</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25" descr="59575513843483062"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="120986550"/>
+          <a:ext cx="8183245" cy="4962525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1790,12 +2087,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G465"/>
+  <dimension ref="A1:G695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B468" sqref="B468"/>
+      <selection pane="bottomLeft" activeCell="D710" sqref="D710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2139,6 +2436,120 @@
         <v>11</v>
       </c>
     </row>
+    <row r="492" ht="40.5" spans="1:7">
+      <c r="A492" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C492" t="s">
+        <v>43</v>
+      </c>
+      <c r="D492" t="s">
+        <v>9</v>
+      </c>
+      <c r="E492" t="s">
+        <v>20</v>
+      </c>
+      <c r="F492" t="s">
+        <v>11</v>
+      </c>
+      <c r="G492" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="554" spans="2:6">
+      <c r="B554" t="s">
+        <v>45</v>
+      </c>
+      <c r="C554" t="s">
+        <v>46</v>
+      </c>
+      <c r="D554" t="s">
+        <v>9</v>
+      </c>
+      <c r="E554" t="s">
+        <v>10</v>
+      </c>
+      <c r="F554" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" ht="27" spans="2:6">
+      <c r="B581" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C581" t="s">
+        <v>33</v>
+      </c>
+      <c r="D581" t="s">
+        <v>9</v>
+      </c>
+      <c r="E581" t="s">
+        <v>20</v>
+      </c>
+      <c r="F581" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606" spans="2:6">
+      <c r="B606" t="s">
+        <v>48</v>
+      </c>
+      <c r="C606" t="s">
+        <v>8</v>
+      </c>
+      <c r="D606" t="s">
+        <v>9</v>
+      </c>
+      <c r="E606" t="s">
+        <v>10</v>
+      </c>
+      <c r="F606" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C633" t="s">
+        <v>40</v>
+      </c>
+      <c r="D633" t="s">
+        <v>9</v>
+      </c>
+      <c r="E633" t="s">
+        <v>10</v>
+      </c>
+      <c r="F633" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="695" spans="2:7">
+      <c r="B695" t="s">
+        <v>50</v>
+      </c>
+      <c r="C695" t="s">
+        <v>43</v>
+      </c>
+      <c r="D695" t="s">
+        <v>9</v>
+      </c>
+      <c r="E695" t="s">
+        <v>10</v>
+      </c>
+      <c r="F695" t="s">
+        <v>11</v>
+      </c>
+      <c r="G695" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-02 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>时间</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>订单导入运单号和物流公司错误</t>
+  </si>
+  <si>
+    <t>3、JD商品售价和协议价格错误</t>
+  </si>
+  <si>
+    <t>京东调整了售价</t>
   </si>
 </sst>
 </file>
@@ -178,8 +184,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -201,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +215,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +236,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -245,42 +306,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,30 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -359,103 +365,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,73 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +556,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,37 +628,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,30 +651,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -658,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1818,6 +1824,82 @@
         <a:xfrm>
           <a:off x="7858125" y="120986550"/>
           <a:ext cx="8183245" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1049020</xdr:colOff>
+      <xdr:row>783</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26" descr="1519804160"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="131540250"/>
+          <a:ext cx="8278495" cy="4363085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1476375</xdr:colOff>
+      <xdr:row>758</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1572260</xdr:colOff>
+      <xdr:row>783</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27" descr="0af659cf40f18f291f46402bbb955bb"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="131568825"/>
+          <a:ext cx="5534660" cy="4286885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2087,12 +2169,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G695"/>
+  <dimension ref="A1:G757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D710" sqref="D710"/>
+      <selection pane="bottomLeft" activeCell="G757" sqref="G757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2550,6 +2632,26 @@
         <v>51</v>
       </c>
     </row>
+    <row r="757" spans="2:7">
+      <c r="B757" t="s">
+        <v>52</v>
+      </c>
+      <c r="C757" t="s">
+        <v>40</v>
+      </c>
+      <c r="D757" t="s">
+        <v>9</v>
+      </c>
+      <c r="E757" t="s">
+        <v>25</v>
+      </c>
+      <c r="F757" t="s">
+        <v>11</v>
+      </c>
+      <c r="G757" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
